--- a/data/trans_dic/P19D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1273405630150737</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06929975553805738</v>
+        <v>0.06929975553805739</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02614940614170035</v>
+        <v>0.02600478828709871</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08018622062335568</v>
+        <v>0.07763691650934003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08415984783018107</v>
+        <v>0.08432544811744686</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05006782765779325</v>
+        <v>0.04359469577950851</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04491307419711797</v>
+        <v>0.04459255440501973</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09656202305993361</v>
+        <v>0.09736811181910369</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.102203505360217</v>
+        <v>0.1060577102012521</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01780526042079683</v>
+        <v>0.01929591649909403</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04166812820167998</v>
+        <v>0.0409832430370223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09395342727283945</v>
+        <v>0.09645565852070941</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1030362769630346</v>
+        <v>0.1031188015760838</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03762329862576155</v>
+        <v>0.04209015396390547</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06706941655012716</v>
+        <v>0.07048493129116246</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1419564124519376</v>
+        <v>0.1401427802616463</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1576446749978954</v>
+        <v>0.1517906496937423</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1596162392152394</v>
+        <v>0.1546631716314246</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09428088848513878</v>
+        <v>0.0964394544232363</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1683907117728858</v>
+        <v>0.1640924267879169</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1759132193612013</v>
+        <v>0.173562826163056</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08224788383106076</v>
+        <v>0.08148465726148786</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07694880864848738</v>
+        <v>0.07519635455891648</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1419482115011532</v>
+        <v>0.1413914807798548</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1545896148767059</v>
+        <v>0.1531288724252889</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1061801425590829</v>
+        <v>0.1070601470851928</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1057881839634732</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0516027736827231</v>
+        <v>0.05160277368272309</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04462956158926497</v>
@@ -833,7 +833,7 @@
         <v>0.08658315471852822</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05915543183216</v>
+        <v>0.05915543183216001</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01934445770707599</v>
+        <v>0.0200051168728492</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06666204736929958</v>
+        <v>0.06416370857757274</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04764771516974042</v>
+        <v>0.04610834714500404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04116109550073315</v>
+        <v>0.042108440160606</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03903568299524277</v>
+        <v>0.03950598119288889</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0937384158943685</v>
+        <v>0.09352048314042324</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07797512655437155</v>
+        <v>0.07966347900339732</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03402315403933305</v>
+        <v>0.03380997567073492</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03363521965937007</v>
+        <v>0.0329234934151653</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08508704598408742</v>
+        <v>0.08600451976712149</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07170823559349948</v>
+        <v>0.07010242857808929</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04336986352343161</v>
+        <v>0.04379479113710836</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05283642871945146</v>
+        <v>0.05236767865559778</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1138496143000532</v>
+        <v>0.1111347778572625</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09229841633838481</v>
+        <v>0.09225114155224726</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1118357351649317</v>
+        <v>0.1103219359155199</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08129327142672867</v>
+        <v>0.08143576764307135</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1521007542988048</v>
+        <v>0.1484252125644634</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1334263941779823</v>
+        <v>0.1342008477701354</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07465146609285575</v>
+        <v>0.07894398403312383</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05893527283251086</v>
+        <v>0.05820502919598042</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.122875501313941</v>
+        <v>0.1224123059825814</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1068425862666044</v>
+        <v>0.1064268289269576</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08116110755298886</v>
+        <v>0.0804838883059123</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.07351778275526849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06921867618108522</v>
+        <v>0.06921867618108521</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.054071769295788</v>
@@ -957,7 +957,7 @@
         <v>0.05891605667971062</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.04982869539479283</v>
+        <v>0.04982869539479282</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.06123506105476827</v>
@@ -969,7 +969,7 @@
         <v>0.06610576834672949</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0594717387890132</v>
+        <v>0.05947173878901321</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04896579930002064</v>
+        <v>0.05020021146546793</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08536978500875168</v>
+        <v>0.08549811360404488</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0537773035256123</v>
+        <v>0.05315397957506749</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05098390009366802</v>
+        <v>0.04942019592864589</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03658261538729438</v>
+        <v>0.03800619814484476</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05466327491839659</v>
+        <v>0.05555486983819531</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04309808974042932</v>
+        <v>0.04089007649988807</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03575666006936658</v>
+        <v>0.03663209753300899</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04806580218527257</v>
+        <v>0.04806075269160474</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07554209738491478</v>
+        <v>0.07689298032726657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05312686086769789</v>
+        <v>0.05387140821432739</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04700980246479664</v>
+        <v>0.04769874736747667</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09816079469672806</v>
+        <v>0.09629339315308201</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1381196942925824</v>
+        <v>0.1387159324502989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09714342940279505</v>
+        <v>0.09543057414088321</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09123738511214839</v>
+        <v>0.09141269080306662</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07522719359180834</v>
+        <v>0.07470069044962824</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09746931219064731</v>
+        <v>0.09868500382484392</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08146765591434869</v>
+        <v>0.08251736994790004</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06754186931878151</v>
+        <v>0.06611919821960832</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07702801571680536</v>
+        <v>0.07768798104252723</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1078001491425725</v>
+        <v>0.1101409968803352</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08133628910545247</v>
+        <v>0.08182409120641455</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07168476423946493</v>
+        <v>0.07398928887168246</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.06795940682808589</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03901356837311465</v>
+        <v>0.03901356837311464</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.07375091450117466</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05363437599223398</v>
+        <v>0.05129266812710564</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1041974092793221</v>
+        <v>0.09996291009799842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08281835730531689</v>
+        <v>0.08213900701482107</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05855179830528263</v>
+        <v>0.05791587304312933</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04988506394734719</v>
+        <v>0.04730391879759898</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06254684658902815</v>
+        <v>0.05974404726415231</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04781500111881396</v>
+        <v>0.04936944375463046</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02967234893786073</v>
+        <v>0.02923497008920062</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05831543341596385</v>
+        <v>0.05786100975135732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08903580245481568</v>
+        <v>0.09076876627211389</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07323801316566445</v>
+        <v>0.07326536013029233</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04680086093545929</v>
+        <v>0.04637888622212299</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1053663387777859</v>
+        <v>0.1043029392202253</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1671560568423922</v>
+        <v>0.1648251810930534</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1411301072783378</v>
+        <v>0.1425682145007481</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1041059015502254</v>
+        <v>0.1009402157067074</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1027030488814952</v>
+        <v>0.0978558245662383</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1119232096092611</v>
+        <v>0.1087936502239941</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09287385472218604</v>
+        <v>0.0919646751429344</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05192736046576376</v>
+        <v>0.05108579212339347</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09350696566179929</v>
+        <v>0.09253546264953991</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1292757327981237</v>
+        <v>0.1289157635495829</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1085613201503568</v>
+        <v>0.1096952203598652</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06966707979662864</v>
+        <v>0.07146190852630432</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.09697127226644654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09085182692824743</v>
+        <v>0.09085182692824742</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.07437298707802631</v>
@@ -1229,7 +1229,7 @@
         <v>0.07177506170018069</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.05924767798944223</v>
+        <v>0.05924767798944221</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.09581106871454453</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08519916158239381</v>
+        <v>0.08840502476453271</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.142570711063187</v>
+        <v>0.1374757899073042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06647366212928692</v>
+        <v>0.06619868255876729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06965988505357036</v>
+        <v>0.0693008363655004</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04971817383355717</v>
+        <v>0.04710431688577504</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0658523775211928</v>
+        <v>0.06540196439414248</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05046916110835466</v>
+        <v>0.04571769321958813</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04414882806427187</v>
+        <v>0.04499350934777384</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07560466208221828</v>
+        <v>0.07476337418722172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1102218497556093</v>
+        <v>0.1096319423441039</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06473119823076622</v>
+        <v>0.06695045233480899</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06186301892040112</v>
+        <v>0.06218263070858234</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.161638274972556</v>
+        <v>0.1650671841399621</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2235293183799153</v>
+        <v>0.2262102513830722</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1320858295262725</v>
+        <v>0.1296536065067417</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1143004657226186</v>
+        <v>0.1161312330560469</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1100505188928184</v>
+        <v>0.1071834425562476</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1294317277719117</v>
+        <v>0.1269371857509685</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1058461258723468</v>
+        <v>0.1030738193405297</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07474589738596324</v>
+        <v>0.07694188322165946</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.122250444068779</v>
+        <v>0.1226805009203623</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1626828547733912</v>
+        <v>0.162558573121266</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1083617833560975</v>
+        <v>0.1074057615744536</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08891011026778253</v>
+        <v>0.08863715901810329</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.09710540646726824</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08033148200876029</v>
+        <v>0.08033148200876027</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1048633290601594</v>
@@ -1377,7 +1377,7 @@
         <v>0.1037796890065459</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.09534905442554414</v>
+        <v>0.09534905442554413</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07522891449110276</v>
+        <v>0.07377311006552119</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1626726828006804</v>
+        <v>0.1651108105316136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07586174182107926</v>
+        <v>0.07364133409873119</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08888188950671219</v>
+        <v>0.08990305885501547</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06684644966050386</v>
+        <v>0.06896376320366762</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09308212836943215</v>
+        <v>0.09027043514715301</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.06457742646078632</v>
+        <v>0.06805279310439855</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06113887882269577</v>
+        <v>0.06411399941793826</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07956070218876612</v>
+        <v>0.07978509629418748</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1382853450016873</v>
+        <v>0.1381089033885711</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07999321943362539</v>
+        <v>0.07973319176425323</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08011015664246003</v>
+        <v>0.08040696750721502</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1684981104161475</v>
+        <v>0.1584880302410626</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2693799669432535</v>
+        <v>0.2767009187386302</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1574312041066149</v>
+        <v>0.1570965720710854</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1426023795081424</v>
+        <v>0.1421943753142472</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.141070288489081</v>
+        <v>0.1409896516822317</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1700929029480061</v>
+        <v>0.1689462252953179</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1354415828215527</v>
+        <v>0.1386296499578222</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.100910698480615</v>
+        <v>0.1023019451220513</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1346275487728017</v>
+        <v>0.1334229474098699</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2032836516361053</v>
+        <v>0.2042782567714686</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1348554979000443</v>
+        <v>0.1333195689651602</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1125876414610478</v>
+        <v>0.1128563115182326</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.119234606566677</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.09772323735741761</v>
+        <v>0.09772323735741763</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1019389030983284</v>
@@ -1513,7 +1513,7 @@
         <v>0.1049239385518463</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1000636635686362</v>
+        <v>0.1000636635686361</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09535687507461744</v>
+        <v>0.08988310832805606</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1786478427643746</v>
+        <v>0.1805502144872929</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04919664214172944</v>
+        <v>0.04896198380676565</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07678963211458623</v>
+        <v>0.07609539111106967</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0377166148648596</v>
+        <v>0.04304758846044322</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1483651367094643</v>
+        <v>0.1458877066203309</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07717169488237179</v>
+        <v>0.0769635630658891</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07740079752661386</v>
+        <v>0.07841554951722003</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07027522508129318</v>
+        <v>0.07306822148361844</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1765286463852411</v>
+        <v>0.1710428164388285</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07287583638709871</v>
+        <v>0.07777873584531764</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.08359214591078494</v>
+        <v>0.08326433727469679</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2229621670086932</v>
+        <v>0.2249673706880038</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.313630876415852</v>
+        <v>0.3176725576153622</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1317991789117147</v>
+        <v>0.1270641581890702</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1352735763287765</v>
+        <v>0.1341481428744589</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1132080920594573</v>
+        <v>0.1187925336667589</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2429840999878298</v>
+        <v>0.2359612265963245</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.173928171385708</v>
+        <v>0.180196491914602</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1181586559207359</v>
+        <v>0.1196855043934381</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1394944604982249</v>
+        <v>0.1400433684143512</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2486095065553301</v>
+        <v>0.2517549695229557</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1407431322905213</v>
+        <v>0.1434785382242783</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1179691431008633</v>
+        <v>0.1187799294554573</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.09242551107084278</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.08517689543812298</v>
+        <v>0.08517689543812297</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.06705302343728228</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06212011698538113</v>
+        <v>0.06215307489897698</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1224048164998043</v>
+        <v>0.1227780857337424</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08084100795740454</v>
+        <v>0.08100476969824062</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07497753841882361</v>
+        <v>0.07528385090634038</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05701489595778381</v>
+        <v>0.05828523405538037</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.09802637778800402</v>
+        <v>0.09882475242319412</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07837693332024043</v>
+        <v>0.07862753789490379</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05098521046769</v>
+        <v>0.05175778008272439</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06227542859505823</v>
+        <v>0.06227469737204543</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1142036816159075</v>
+        <v>0.1136616961338078</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08264752046429835</v>
+        <v>0.08287423002930101</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06473826122025185</v>
+        <v>0.0658628525036581</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08334249177166811</v>
+        <v>0.08474476885192228</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.148909875298396</v>
+        <v>0.1499770252856863</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1042326568399832</v>
+        <v>0.1039187505203479</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09628113875794435</v>
+        <v>0.09763871018904573</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07627377535421213</v>
+        <v>0.07726581949087856</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1212606276521584</v>
+        <v>0.1209648159383093</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1007018485901219</v>
+        <v>0.1002607077504595</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.06504460680474894</v>
+        <v>0.06560671309336552</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0767611010805969</v>
+        <v>0.0769679161833073</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1307232764566861</v>
+        <v>0.1310605563686676</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.09912041149812739</v>
+        <v>0.09800713205229507</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.07747675101597562</v>
+        <v>0.07827982737484671</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9398</v>
+        <v>9346</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>30480</v>
+        <v>29511</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29695</v>
+        <v>29753</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18815</v>
+        <v>16383</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16899</v>
+        <v>16778</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>35637</v>
+        <v>35934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>35968</v>
+        <v>37325</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6075</v>
+        <v>6584</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>30653</v>
+        <v>30149</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>70387</v>
+        <v>72262</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>72617</v>
+        <v>72675</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>26976</v>
+        <v>30179</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24105</v>
+        <v>25332</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>53960</v>
+        <v>53270</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55623</v>
+        <v>53558</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59983</v>
+        <v>58122</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35473</v>
+        <v>36286</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>62146</v>
+        <v>60559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>61909</v>
+        <v>61082</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28063</v>
+        <v>27803</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>56608</v>
+        <v>55318</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>106344</v>
+        <v>105927</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>108950</v>
+        <v>107921</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>76131</v>
+        <v>76762</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>11167</v>
+        <v>11549</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39561</v>
+        <v>38079</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23494</v>
+        <v>22735</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18419</v>
+        <v>18843</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21380</v>
+        <v>21638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52480</v>
+        <v>52358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>38732</v>
+        <v>39570</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16432</v>
+        <v>16329</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>37839</v>
+        <v>37039</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>98132</v>
+        <v>99190</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>70977</v>
+        <v>69387</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>40353</v>
+        <v>40749</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30502</v>
+        <v>30231</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>67565</v>
+        <v>65954</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45510</v>
+        <v>45487</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>50044</v>
+        <v>49367</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44525</v>
+        <v>44603</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>85154</v>
+        <v>83096</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>66276</v>
+        <v>66660</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36054</v>
+        <v>38128</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>66302</v>
+        <v>65480</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>141714</v>
+        <v>141179</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>105752</v>
+        <v>105341</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>75516</v>
+        <v>74886</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>24627</v>
+        <v>25247</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49976</v>
+        <v>50051</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29894</v>
+        <v>29548</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30553</v>
+        <v>29616</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22080</v>
+        <v>22939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>35945</v>
+        <v>36531</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>24699</v>
+        <v>23433</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21658</v>
+        <v>22189</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>53185</v>
+        <v>53179</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>93897</v>
+        <v>95576</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>59979</v>
+        <v>60819</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>56646</v>
+        <v>57476</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>49368</v>
+        <v>48429</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>80856</v>
+        <v>81205</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>54001</v>
+        <v>53049</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>54675</v>
+        <v>54780</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45405</v>
+        <v>45087</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>64093</v>
+        <v>64892</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>46687</v>
+        <v>47289</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40911</v>
+        <v>40049</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>85231</v>
+        <v>85962</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>133993</v>
+        <v>136903</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>91826</v>
+        <v>92377</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>86378</v>
+        <v>89155</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>21708</v>
+        <v>20761</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>56236</v>
+        <v>53951</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>42434</v>
+        <v>42086</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>39706</v>
+        <v>39274</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>21909</v>
+        <v>20775</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>35103</v>
+        <v>33530</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26054</v>
+        <v>26901</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21500</v>
+        <v>21183</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>49214</v>
+        <v>48831</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>98023</v>
+        <v>99931</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>77431</v>
+        <v>77460</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>65648</v>
+        <v>65056</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42647</v>
+        <v>42216</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>90216</v>
+        <v>88958</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>72311</v>
+        <v>73048</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>70597</v>
+        <v>68450</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>45106</v>
+        <v>42977</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>62814</v>
+        <v>61058</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>50605</v>
+        <v>50110</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>37625</v>
+        <v>37015</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>78914</v>
+        <v>78094</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>142325</v>
+        <v>141928</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>114777</v>
+        <v>115976</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>97722</v>
+        <v>100240</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23204</v>
+        <v>24077</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>51669</v>
+        <v>49823</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24662</v>
+        <v>24560</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>41478</v>
+        <v>41264</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15864</v>
+        <v>15030</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>25790</v>
+        <v>25614</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>19979</v>
+        <v>18098</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>26304</v>
+        <v>26808</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>44715</v>
+        <v>44217</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>83112</v>
+        <v>82667</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>49641</v>
+        <v>51343</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>73694</v>
+        <v>74075</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>44022</v>
+        <v>44956</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>81010</v>
+        <v>81982</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>49004</v>
+        <v>48102</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>68058</v>
+        <v>69149</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>35115</v>
+        <v>34200</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>50690</v>
+        <v>49713</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>41902</v>
+        <v>40804</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>44535</v>
+        <v>45843</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>72303</v>
+        <v>72557</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>122670</v>
+        <v>122576</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>83100</v>
+        <v>82367</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>105914</v>
+        <v>105589</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>16069</v>
+        <v>15758</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>42537</v>
+        <v>43175</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>17458</v>
+        <v>16947</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>35130</v>
+        <v>35534</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>16507</v>
+        <v>17030</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>27893</v>
+        <v>27050</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>17885</v>
+        <v>18847</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>26333</v>
+        <v>27615</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>36641</v>
+        <v>36744</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>77598</v>
+        <v>77499</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>40562</v>
+        <v>40431</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>66168</v>
+        <v>66413</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>35992</v>
+        <v>33854</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>70440</v>
+        <v>72355</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>36229</v>
+        <v>36152</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>56363</v>
+        <v>56202</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>34836</v>
+        <v>34816</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>50969</v>
+        <v>50626</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>37510</v>
+        <v>38393</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43464</v>
+        <v>44063</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>62002</v>
+        <v>61447</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>114072</v>
+        <v>114630</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>68382</v>
+        <v>67603</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>92993</v>
+        <v>93215</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12088</v>
+        <v>11394</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33037</v>
+        <v>33388</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7235</v>
+        <v>7200</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>23321</v>
+        <v>23111</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7853</v>
+        <v>8963</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>45175</v>
+        <v>44421</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17488</v>
+        <v>17441</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>34632</v>
+        <v>35086</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>23540</v>
+        <v>24476</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>86395</v>
+        <v>83710</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>27231</v>
+        <v>29063</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>62790</v>
+        <v>62543</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28264</v>
+        <v>28518</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>57999</v>
+        <v>58746</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19382</v>
+        <v>18686</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>41083</v>
+        <v>40742</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>23571</v>
+        <v>24734</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>73985</v>
+        <v>71847</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>39414</v>
+        <v>40834</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>52868</v>
+        <v>53552</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>46727</v>
+        <v>46911</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>121672</v>
+        <v>123212</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>52591</v>
+        <v>53613</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>88612</v>
+        <v>89221</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>152634</v>
+        <v>152715</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>355894</v>
+        <v>356980</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>215228</v>
+        <v>215664</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>254552</v>
+        <v>255592</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>156274</v>
+        <v>159756</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>308144</v>
+        <v>310654</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>224632</v>
+        <v>225350</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>184996</v>
+        <v>187799</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>323709</v>
+        <v>323705</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>691047</v>
+        <v>687767</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>456909</v>
+        <v>458163</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>454688</v>
+        <v>462586</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>204780</v>
+        <v>208225</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>432958</v>
+        <v>436061</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>277505</v>
+        <v>276670</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>326879</v>
+        <v>331488</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>209062</v>
+        <v>211781</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>381180</v>
+        <v>380251</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>288616</v>
+        <v>287352</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>236010</v>
+        <v>238049</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>399006</v>
+        <v>400081</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>791007</v>
+        <v>793048</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>547978</v>
+        <v>541824</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>544156</v>
+        <v>549797</v>
       </c>
     </row>
     <row r="36">
